--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="304">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -728,6 +728,12 @@
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV given in C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSVbuttons(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggles the visibility of the PID SV buttons</t>
   </si>
   <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
@@ -1449,10 +1455,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2372,7 +2378,6 @@
       <c r="C112" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
@@ -2381,6 +2386,7 @@
       <c r="C113" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="D113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
@@ -2503,17 +2509,17 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C129" s="1" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
         <v>272</v>
       </c>
@@ -2571,15 +2577,15 @@
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>287</v>
+        <v>101</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>288</v>
@@ -2595,26 +2601,26 @@
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="B142" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>295</v>
@@ -2622,45 +2628,53 @@
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="B144" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C144" s="1" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>118</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>301</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
